--- a/biology/Microbiologie/Trichomonadida/Trichomonadida.xlsx
+++ b/biology/Microbiologie/Trichomonadida/Trichomonadida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Trichomonadida sont un ordre de protozoaires de la classe des Trichomonadea.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-ordres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Taxonomicon  (19 novembre 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Taxonomicon  (19 novembre 2021) :
 Honigbergiellina Čepička et al., 2010
 Hypotrichomonadina Čepička et al., 2010
 Trichomonadina Cavalier-Smith, 2012</t>
@@ -544,9 +558,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (19 novembre 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (19 novembre 2021) :
 Calonymphidae
 Cochlosomatidae
 Devescovinidae
@@ -588,7 +604,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Harold Kirby, « Flagellate and Host Relationships of Trichomonad Flagellates », The Journal of Parasitology, vol. 33, no 3,‎ 1947, p. 214–228 (ISSN 0022-3395, DOI 10.2307/3273552, lire en ligne, consulté le 19 novembre 2021)</t>
         </is>
